--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="14895" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="14895" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="1" r:id="rId1"/>
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,42 @@
   </si>
   <si>
     <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>損益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡膠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>權證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正峰新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買進40.6 成本40.657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居易</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -140,6 +176,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +478,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H2:H9"/>
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -701,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -774,12 +813,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>40213</v>
+      </c>
+      <c r="C2">
+        <v>-21000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
+        <v>40616</v>
+      </c>
+      <c r="C3">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>-5000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -813,10 +813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -876,6 +876,20 @@
         <v>-5000</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <v>40791</v>
+      </c>
+      <c r="C6">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="14895" windowHeight="7935" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,11 +113,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +187,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -265,6 +270,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -299,6 +305,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,20 +481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -516,7 +523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -534,7 +541,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40088</v>
       </c>
@@ -564,7 +571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40115</v>
       </c>
@@ -591,7 +598,7 @@
         <v>-19600</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40115</v>
       </c>
@@ -618,7 +625,7 @@
         <v>-21100</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40119</v>
       </c>
@@ -645,7 +652,7 @@
         <v>-25600</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40121</v>
       </c>
@@ -672,7 +679,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>40127</v>
       </c>
@@ -699,7 +706,7 @@
         <v>-22100</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>40129</v>
       </c>
@@ -737,16 +744,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -775,7 +782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>40213</v>
       </c>
@@ -812,19 +819,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -838,7 +845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -849,7 +856,7 @@
         <v>-21000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -860,7 +867,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -868,7 +875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -876,7 +883,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -887,8 +894,27 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
+        <v>40801</v>
+      </c>
+      <c r="C7">
+        <v>-971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
+        <v>40814</v>
+      </c>
+      <c r="C8">
+        <v>-1616</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>居易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>權證</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,10 +824,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -916,6 +920,17 @@
         <v>-1616</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5">
+        <v>40848</v>
+      </c>
+      <c r="C9">
+        <v>-295</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="14895" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="7515" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="1" r:id="rId1"/>
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,58 @@
   </si>
   <si>
     <t>權證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆赫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大聯大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賣出10.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際金額10200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢唐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三陽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台橡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大聯大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台塑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚揚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日圓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +241,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,18 +885,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -849,7 +910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -860,7 +921,7 @@
         <v>-21000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -871,15 +932,24 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
+      <c r="C4">
+        <v>-30457</v>
+      </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -887,7 +957,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -898,7 +968,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -909,7 +979,7 @@
         <v>-971</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -920,7 +990,7 @@
         <v>-1616</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -929,6 +999,221 @@
       </c>
       <c r="C9">
         <v>-295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5">
+        <v>40942</v>
+      </c>
+      <c r="C10">
+        <v>-975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <v>40989</v>
+      </c>
+      <c r="C11">
+        <v>-6100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5">
+        <v>40996</v>
+      </c>
+      <c r="C12">
+        <v>-3227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5">
+        <v>40998</v>
+      </c>
+      <c r="C13">
+        <v>-3364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5">
+        <v>41162</v>
+      </c>
+      <c r="C14">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5">
+        <v>41204</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5">
+        <v>41220</v>
+      </c>
+      <c r="C16">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5">
+        <v>41220</v>
+      </c>
+      <c r="C17">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5">
+        <v>41222</v>
+      </c>
+      <c r="C18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5">
+        <v>41222</v>
+      </c>
+      <c r="C19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5">
+        <v>41229</v>
+      </c>
+      <c r="C20">
+        <v>-314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5">
+        <v>41239</v>
+      </c>
+      <c r="C21">
+        <v>-256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="5">
+        <v>41239</v>
+      </c>
+      <c r="C22">
+        <v>-445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="6">
+        <v>41254</v>
+      </c>
+      <c r="C23">
+        <v>-722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="6">
+        <v>41261</v>
+      </c>
+      <c r="C24">
+        <v>-219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5">
+        <v>41177</v>
+      </c>
+      <c r="C28">
+        <v>5187</v>
+      </c>
+      <c r="D28">
+        <v>4560</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5">
+        <v>41222</v>
+      </c>
+      <c r="D29">
+        <v>4780</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="5">
+        <v>41241</v>
+      </c>
+      <c r="D30">
+        <v>5480</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="7515" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="7515" windowHeight="7845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="1" r:id="rId1"/>
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>日圓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台表科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,15 +884,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1170,49 +1175,66 @@
       <c r="A25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B25" s="5">
+        <v>41339</v>
+      </c>
+      <c r="C25">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="5">
+        <v>41347</v>
+      </c>
+      <c r="C26">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B32" s="5">
         <v>41177</v>
       </c>
-      <c r="C28">
+      <c r="D32">
+        <v>4560</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="5">
+        <v>41222</v>
+      </c>
+      <c r="D33">
+        <v>4780</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="5">
+        <v>41241</v>
+      </c>
+      <c r="C34">
         <v>5187</v>
       </c>
-      <c r="D28">
-        <v>4560</v>
-      </c>
-      <c r="E28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="5">
-        <v>41222</v>
-      </c>
-      <c r="D29">
-        <v>4780</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="5">
-        <v>41241</v>
-      </c>
-      <c r="D30">
+      <c r="D34">
         <v>5480</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E34" t="s">
         <v>36</v>
       </c>
     </row>

--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="7515" windowHeight="7845" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,17 +167,60 @@
   </si>
   <si>
     <t>台表科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利勤</t>
+  </si>
+  <si>
+    <t>聚碩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯強</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台光電</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大聯大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013總結</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -339,7 +382,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -374,7 +416,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,20 +591,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -592,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -610,7 +651,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>40088</v>
       </c>
@@ -640,7 +681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>40115</v>
       </c>
@@ -667,7 +708,7 @@
         <v>-19600</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>40115</v>
       </c>
@@ -694,7 +735,7 @@
         <v>-21100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>40119</v>
       </c>
@@ -721,7 +762,7 @@
         <v>-25600</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>40121</v>
       </c>
@@ -748,7 +789,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>40127</v>
       </c>
@@ -775,7 +816,7 @@
         <v>-22100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>40129</v>
       </c>
@@ -813,16 +854,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -851,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>40213</v>
       </c>
@@ -889,19 +930,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -915,7 +956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -926,7 +967,7 @@
         <v>-21000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -937,7 +978,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -954,7 +995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -962,7 +1003,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -973,7 +1014,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -984,7 +1025,7 @@
         <v>-971</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -995,7 +1036,7 @@
         <v>-1616</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1006,7 +1047,7 @@
         <v>-295</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1017,7 +1058,7 @@
         <v>-975</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1028,7 +1069,7 @@
         <v>-6100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1080,7 @@
         <v>-3227</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1091,7 @@
         <v>-3364</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1061,7 +1102,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1072,7 +1113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1083,7 +1124,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1094,7 +1135,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1146,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1116,7 +1157,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1127,7 +1168,7 @@
         <v>-314</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1138,7 +1179,7 @@
         <v>-256</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1149,7 +1190,7 @@
         <v>-445</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1160,7 +1201,7 @@
         <v>-722</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1171,7 +1212,7 @@
         <v>-219</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1179,10 +1220,10 @@
         <v>41339</v>
       </c>
       <c r="C25">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1193,48 +1234,197 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="5">
+        <v>41347</v>
+      </c>
+      <c r="C27">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="5">
+        <v>41348</v>
+      </c>
+      <c r="C28">
+        <v>-453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="5">
+        <v>41348</v>
+      </c>
+      <c r="C29">
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="5">
+        <v>41359</v>
+      </c>
+      <c r="C30">
+        <v>-383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="5">
+        <v>41372</v>
+      </c>
+      <c r="C31">
+        <v>-294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="5">
+        <v>41372</v>
+      </c>
+      <c r="C32">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="5">
+        <v>41456</v>
+      </c>
+      <c r="C33">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="5">
+        <v>41459</v>
+      </c>
+      <c r="C34">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="5">
+        <v>41456</v>
+      </c>
+      <c r="C35">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="5">
+        <v>41358</v>
+      </c>
+      <c r="C36">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="5">
+        <v>41509</v>
+      </c>
+      <c r="C37">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="5">
+        <v>41401</v>
+      </c>
+      <c r="C38">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B42" s="5">
         <v>41177</v>
       </c>
-      <c r="D32">
+      <c r="D42">
         <v>4560</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E42" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B43" s="5">
         <v>41222</v>
       </c>
-      <c r="D33">
+      <c r="D43">
         <v>4780</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B44" s="5">
         <v>41241</v>
       </c>
-      <c r="C34">
+      <c r="C44">
         <v>5187</v>
       </c>
-      <c r="D34">
+      <c r="D44">
         <v>5480</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>3807</v>
+      </c>
+      <c r="D45">
+        <v>14100</v>
+      </c>
+      <c r="E45" t="s">
         <v>36</v>
       </c>
     </row>

--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,10 @@
   </si>
   <si>
     <t>2013總結</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,10 +935,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1366,65 +1370,120 @@
         <v>239</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="5">
+        <v>41514</v>
+      </c>
+      <c r="C39">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="5">
+        <v>41523</v>
+      </c>
+      <c r="C40">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="5">
+        <v>41575</v>
+      </c>
+      <c r="C41">
+        <v>1024</v>
+      </c>
+    </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B42" s="5">
-        <v>41177</v>
-      </c>
-      <c r="D42">
-        <v>4560</v>
-      </c>
-      <c r="E42" t="s">
-        <v>36</v>
+        <v>41578</v>
+      </c>
+      <c r="C42">
+        <v>1109</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5">
+        <v>41585</v>
+      </c>
+      <c r="C43">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B47" s="5">
+        <v>41177</v>
+      </c>
+      <c r="D47">
+        <v>4560</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="5">
         <v>41222</v>
       </c>
-      <c r="D43">
+      <c r="D48">
         <v>4780</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E48" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B49" s="5">
         <v>41241</v>
       </c>
-      <c r="C44">
+      <c r="C49">
         <v>5187</v>
       </c>
-      <c r="D44">
+      <c r="D49">
         <v>5480</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C45">
+      <c r="C50">
         <v>3807</v>
       </c>
-      <c r="D45">
+      <c r="D50">
         <v>14100</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E50" t="s">
         <v>36</v>
       </c>
     </row>

--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -938,7 +938,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B43"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1425,6 +1425,17 @@
         <v>988</v>
       </c>
     </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="5">
+        <v>41543</v>
+      </c>
+      <c r="C44">
+        <v>1345</v>
+      </c>
+    </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>16</v>

--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>博大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>達興</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大聯大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毅嘉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,10 +947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C55" sqref="C45:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1304,7 +1316,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1315,7 +1327,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1338,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1337,7 +1349,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1348,7 +1360,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1381,7 +1393,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1403,7 +1415,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1414,7 +1426,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1425,7 +1437,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1436,65 +1448,186 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="5">
+        <v>41691</v>
+      </c>
+      <c r="C45">
+        <v>-2528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="5">
+        <v>41694</v>
+      </c>
+      <c r="C46">
+        <v>-1867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B47" s="5">
-        <v>41177</v>
-      </c>
-      <c r="D47">
-        <v>4560</v>
-      </c>
-      <c r="E47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>41691</v>
+      </c>
+      <c r="C47">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B48" s="5">
-        <v>41222</v>
-      </c>
-      <c r="D48">
-        <v>4780</v>
-      </c>
-      <c r="E48" t="s">
-        <v>36</v>
+        <v>41710</v>
+      </c>
+      <c r="C48">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B49" s="5">
-        <v>41241</v>
+        <v>41710</v>
       </c>
       <c r="C49">
-        <v>5187</v>
-      </c>
-      <c r="D49">
-        <v>5480</v>
-      </c>
-      <c r="E49" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="5">
+        <v>41716</v>
+      </c>
+      <c r="C50">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="5">
+        <v>41716</v>
+      </c>
+      <c r="C51">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="5">
+        <v>41716</v>
+      </c>
+      <c r="C52">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5">
+        <v>41716</v>
+      </c>
+      <c r="C53">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5">
+        <v>41716</v>
+      </c>
+      <c r="C54">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="5">
+        <v>41716</v>
+      </c>
+      <c r="C55">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="5">
+        <v>41177</v>
+      </c>
+      <c r="D63">
+        <v>4560</v>
+      </c>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="5">
+        <v>41222</v>
+      </c>
+      <c r="D64">
+        <v>4780</v>
+      </c>
+      <c r="E64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="5">
+        <v>41241</v>
+      </c>
+      <c r="C65">
+        <v>5187</v>
+      </c>
+      <c r="D65">
+        <v>5480</v>
+      </c>
+      <c r="E65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
         <v>47</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B66" t="s">
         <v>48</v>
       </c>
-      <c r="C50">
+      <c r="C66">
         <v>3807</v>
       </c>
-      <c r="D50">
+      <c r="D66">
         <v>14100</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E66" t="s">
         <v>36</v>
       </c>
     </row>

--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="7515" windowHeight="7845" activeTab="2"/>
+    <workbookView xWindow="15" yWindow="75" windowWidth="8160" windowHeight="7845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>毅嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信邦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,10 +951,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C45:C55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1492,7 +1496,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1536,7 +1540,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -1569,65 +1573,109 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="5">
+        <v>41716</v>
+      </c>
+      <c r="C56">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="5">
+        <v>41716</v>
+      </c>
+      <c r="C57">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5">
+        <v>41716</v>
+      </c>
+      <c r="C58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="5">
+        <v>41716</v>
+      </c>
+      <c r="C59">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B70" s="5">
         <v>41177</v>
       </c>
-      <c r="D63">
+      <c r="D70">
         <v>4560</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B71" s="5">
         <v>41222</v>
       </c>
-      <c r="D64">
+      <c r="D71">
         <v>4780</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E71" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B72" s="5">
         <v>41241</v>
       </c>
-      <c r="C65">
+      <c r="C72">
         <v>5187</v>
       </c>
-      <c r="D65">
+      <c r="D72">
         <v>5480</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E72" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
         <v>47</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B73" t="s">
         <v>48</v>
       </c>
-      <c r="C66">
+      <c r="C73">
         <v>3807</v>
       </c>
-      <c r="D66">
+      <c r="D73">
         <v>14100</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E73" t="s">
         <v>36</v>
       </c>
     </row>

--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,10 @@
   </si>
   <si>
     <t>信邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超豐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,10 +955,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1617,65 +1621,131 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="5">
+        <v>41719</v>
+      </c>
+      <c r="C60">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="5">
+        <v>41719</v>
+      </c>
+      <c r="C61">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="5">
+        <v>41719</v>
+      </c>
+      <c r="C62">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="5">
+        <v>41719</v>
+      </c>
+      <c r="C63">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="5">
+        <v>41719</v>
+      </c>
+      <c r="C64">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="5">
+        <v>41719</v>
+      </c>
+      <c r="C65">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B74" s="5">
         <v>41177</v>
       </c>
-      <c r="D70">
+      <c r="D74">
         <v>4560</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E74" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B75" s="5">
         <v>41222</v>
       </c>
-      <c r="D71">
+      <c r="D75">
         <v>4780</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B76" s="5">
         <v>41241</v>
       </c>
-      <c r="C72">
+      <c r="C76">
         <v>5187</v>
       </c>
-      <c r="D72">
+      <c r="D76">
         <v>5480</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E76" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
         <v>47</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B77" t="s">
         <v>48</v>
       </c>
-      <c r="C73">
+      <c r="C77">
         <v>3807</v>
       </c>
-      <c r="D73">
+      <c r="D77">
         <v>14100</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E77" t="s">
         <v>36</v>
       </c>
     </row>

--- a/交易紀錄/維修 -交易紀錄-橡膠.xlsx
+++ b/交易紀錄/維修 -交易紀錄-橡膠.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>進場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,13 @@
   </si>
   <si>
     <t>超豐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力致</t>
+  </si>
+  <si>
+    <t>結算時浮虧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,10 +962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1687,6 +1694,69 @@
         <v>54</v>
       </c>
     </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="5">
+        <v>41814</v>
+      </c>
+      <c r="C66">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="5">
+        <v>41814</v>
+      </c>
+      <c r="C67">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="5">
+        <v>41814</v>
+      </c>
+      <c r="C68">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="5">
+        <v>41814</v>
+      </c>
+      <c r="C69">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="5">
+        <v>41814</v>
+      </c>
+      <c r="C70">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71">
+        <v>-4057</v>
+      </c>
+    </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>16</v>
@@ -1746,6 +1816,23 @@
         <v>14100</v>
       </c>
       <c r="E77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78">
+        <v>-1332</v>
+      </c>
+      <c r="D78">
+        <v>-4440</v>
+      </c>
+      <c r="E78" t="s">
         <v>36</v>
       </c>
     </row>
